--- a/biology/Zoologie/Beethoven_et_le_Trésor_perdu/Beethoven_et_le_Trésor_perdu.xlsx
+++ b/biology/Zoologie/Beethoven_et_le_Trésor_perdu/Beethoven_et_le_Trésor_perdu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beethoven_et_le_Tr%C3%A9sor_perdu</t>
+          <t>Beethoven_et_le_Trésor_perdu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beethoven et le Trésor perdu (Beethoven's 5th) est un film américain de Mark Griffiths sorti en 2003 directement en vidéo et qui est la suite de Beethoven (1992), de Beethoven 2 (1993), de Beethoven 3 (2000) et de Beethoven 4 (2001).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beethoven_et_le_Tr%C3%A9sor_perdu</t>
+          <t>Beethoven_et_le_Trésor_perdu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Beethoven part en vacances, avec Sara et son oncle Freddie, dans un ancien village de mineurs. Toujours aussi malicieux, Beethoven va déterrer un ancien billet de 10 dollars. Aussi, quand les villageois découvrent que ce billet est l'ultime indice pour retrouver une véritable fortune cachée, ils veulent tous devenir le meilleur ami de Beethoven.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beethoven_et_le_Tr%C3%A9sor_perdu</t>
+          <t>Beethoven_et_le_Trésor_perdu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Mark Griffiths
 Scénario : Cliff Ruby et Elana Lesser
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beethoven_et_le_Tr%C3%A9sor_perdu</t>
+          <t>Beethoven_et_le_Trésor_perdu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dave Thomas (VF : Patrice Dozier) : Freddy Kablinski
 Faith Ford (VF : Anne Dolan) : Julie Dempsey
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beethoven_et_le_Tr%C3%A9sor_perdu</t>
+          <t>Beethoven_et_le_Trésor_perdu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,7 +656,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce film est également appelé Beethoven 5 en tant que suite des quatre premiers volets de la saga, ou encore Beethoven, chasseur de trésor.</t>
         </is>
